--- a/Winch Controller/Scale offset calculator.xlsx
+++ b/Winch Controller/Scale offset calculator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>raw ACD high</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>offset</t>
-  </si>
-  <si>
-    <t>3ee</t>
   </si>
 </sst>
 </file>
@@ -55,8 +52,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -220,8 +217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -533,7 +530,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,60 +565,60 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9">
-        <v>11</v>
-      </c>
+      <c r="B2" s="5">
+        <v>512</v>
+      </c>
+      <c r="C2" s="9"/>
       <c r="D2">
         <f>IF(ISBLANK(B2),HEX2DEC(C2),B2)</f>
-        <v>17</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="13">
         <f>(D6-D5)/(D3-D2)*B8</f>
-        <v>103.43781597573306</v>
+        <v>1058.2758620689656</v>
       </c>
       <c r="H2" s="14">
         <f>ROUND(G2,0)</f>
-        <v>103</v>
+        <v>1058</v>
       </c>
       <c r="I2" s="15" t="str">
         <f>DEC2HEX(H2)</f>
-        <v>67</v>
+        <v>422</v>
       </c>
       <c r="J2" s="12">
         <f>G2/B8</f>
-        <v>0.10111223458038422</v>
+        <v>1.0344827586206897</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="6">
+        <v>541</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3">
         <f t="shared" ref="D3:D6" si="0">IF(ISBLANK(B3),HEX2DEC(C3),B3)</f>
-        <v>1006</v>
+        <v>541</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="13">
         <f>D5-D2*(G2/B8)</f>
-        <v>-1.7189079878665319</v>
+        <v>-529.65517241379314</v>
       </c>
       <c r="H3" s="14">
         <f>ROUND(G3,0)</f>
-        <v>-2</v>
+        <v>-530</v>
       </c>
       <c r="I3" s="16" t="str">
         <f>RIGHT(DEC2HEX(H3),4)</f>
-        <v>FFFE</v>
+        <v>FDEE</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -651,12 +648,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
